--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ060.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ060.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4E03CB-F230-429C-8B43-17DC3F4E3726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BE11A3-E63A-4248-84F5-A0AE16F34AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9264" yWindow="4944" windowWidth="12024" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A:新增;C:異動</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Decimal</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -357,6 +353,11 @@
   <si>
     <t>custRcEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -928,7 +929,7 @@
   <dimension ref="A1:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -975,10 +976,10 @@
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
@@ -1071,7 +1072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>1</v>
       </c>
@@ -1089,7 +1090,7 @@
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="14" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1140,17 +1141,17 @@
         <v>28</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="15">
         <v>8</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1164,7 +1165,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
@@ -1183,7 +1184,7 @@
         <v>44</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="15">
         <v>6</v>
@@ -1217,10 +1218,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>19</v>
@@ -1805,65 +1806,65 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
